--- a/052350-9/Manufacture/BillOfMaterials.rep.xlsx
+++ b/052350-9/Manufacture/BillOfMaterials.rep.xlsx
@@ -127,25 +127,7 @@
     <t xml:space="preserve">Z357PA40-SMT-P-NC-N</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.digikey.ca/products/en?keywords=Z357PA40-SMT-P-NC-N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.digikey.ca/products/en?keywords=Z357PA40-SMT-P-NC-N </t>
   </si>
   <si>
     <t xml:space="preserve">U12</t>
@@ -178,25 +160,7 @@
     <t xml:space="preserve">ERJ-6DQF1R3V</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626 </t>
   </si>
   <si>
     <t xml:space="preserve">R21 R43 R44 R46 R47</t>
@@ -247,25 +211,7 @@
     <t xml:space="preserve">RMCF0603FT7M50</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073 </t>
   </si>
   <si>
     <t xml:space="preserve">R69</t>
@@ -292,25 +238,7 @@
     <t xml:space="preserve">CRCW0603174KFKEA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063 </t>
   </si>
   <si>
     <t xml:space="preserve">R28</t>
@@ -367,25 +295,7 @@
     <t xml:space="preserve">CRCW06031K65FKEA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965 </t>
   </si>
   <si>
     <t xml:space="preserve">R10</t>
@@ -400,25 +310,7 @@
     <t xml:space="preserve">RMCF0603FT2M37</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160 </t>
   </si>
   <si>
     <t xml:space="preserve">R7 R30 R32 R33 R36 R72</t>
@@ -725,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1593,12 +1485,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://cdn-shop.adafruit.com/product-files/2686/SK6812MINI_REV.01-1-2.pdf"/>
-    <hyperlink ref="D16" r:id="rId2" display="https://www.digikey.ca/products/en?keywords=Z357PA40-SMT-P-NC-N"/>
-    <hyperlink ref="D21" r:id="rId3" display="https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626"/>
-    <hyperlink ref="D29" r:id="rId4" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073"/>
-    <hyperlink ref="D33" r:id="rId5" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063"/>
-    <hyperlink ref="D42" r:id="rId6" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965"/>
-    <hyperlink ref="D44" r:id="rId7" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160"/>
+    <hyperlink ref="D16" r:id="rId2" display="https://www.digikey.ca/products/en?keywords=Z357PA40-SMT-P-NC-N "/>
+    <hyperlink ref="D21" r:id="rId3" display="https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626 "/>
+    <hyperlink ref="D29" r:id="rId4" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073 "/>
+    <hyperlink ref="D33" r:id="rId5" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063 "/>
+    <hyperlink ref="D42" r:id="rId6" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965 "/>
+    <hyperlink ref="D44" r:id="rId7" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160 "/>
     <hyperlink ref="D63" r:id="rId8" display="http://www.huakevision.com/h-pd-634.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/052350-9/Manufacture/BillOfMaterials.rep.xlsx
+++ b/052350-9/Manufacture/BillOfMaterials.rep.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -34,6 +34,90 @@
     <t xml:space="preserve">Link</t>
   </si>
   <si>
+    <t xml:space="preserve">C1 C2 C5 C6 C7 C8 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C26 C29 C31 C34 C36 C38 C39 C40 C42 C44 C46 C47 C52 C53 C55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCJ188R71E104KA12D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10 C48 C49 C54 C35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL10B105MO8NNWC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22 C23 C32 C41 C43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BR61E226ME44L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188R6YA225MA12D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06033C100KAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27 C37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603JRNPO9BN101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B475KPFNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R7BB683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33 C51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM31CR71C106KA64L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCD188R71H103KA01D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM21BR71C475KA73L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9 C28 C45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BR61E106MA73L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV02W200B-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZXRE330ASA-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">D5 D6</t>
   </si>
   <si>
@@ -46,10 +130,40 @@
     <t xml:space="preserve">BAT54WX-TP</t>
   </si>
   <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV02W200B-G</t>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ZCF0200AF2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ZCJ0025AF2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF37B-10DP-0.4V(53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1 L2 L3 L5 L6 L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPZ1608S331ATA00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRN4018-221M</t>
   </si>
   <si>
     <t xml:space="preserve">LED1 LED2 LED3 LED4 LED5 LED6 LED7 LED8 LED9 LED10</t>
@@ -61,64 +175,328 @@
     <t xml:space="preserve">https://cdn-shop.adafruit.com/product-files/2686/SK6812MINI_REV.01-1-2.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">P2 P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREC002SBAN-M71RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM02B-SFHRS-TF(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2501LF-06A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.huakevision.com/h-pd-634.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P7 P8 P9 P10 P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120220-0311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 Q8 Q15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMP3099L-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 Q5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSS123WQ-7-F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
     <t xml:space="preserve">BSS223PWH6327XTSA1</t>
   </si>
   <si>
+    <t xml:space="preserve">Q9 Q10 Q12 Q19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSM3K7002CFU,LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW06032R00FKEAHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0603220KFKEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCP15WF104J03RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07143KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15 R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0603174KFKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16 R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW060356K2FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17 R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-0743KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERJ-6DQF1R3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21 R43 R44 R46 R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW060310K0FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW06031K65FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23 R68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW06033K30FKEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0603560RFKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26 R62 R63 R64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW06031M65FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW06031R21FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3 R6 R52 R53 R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW060310M0FKEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0603FT2M37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35 R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW06036M04FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCG06031M00FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4 R29 R45 R49 R50 R51 R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0603100KFKEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805FR-074M64L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0201FR-07402KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0603FT7M50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603FR-07130KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57 R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0603470RFKEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0603820RFKEAHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7 R30 R32 R33 R36 R72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW06033M00FKEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZXCT1023DFGTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT25SF041-SSHD-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYBLE-214009-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC1T45Z6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1702T-3302E/CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQ2057TTSTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLV8544PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCP551SN33T1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS76633DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIC5219-5.0YMT-TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMV358DMR2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS54061DRBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74VHC4052AFT</t>
+  </si>
+  <si>
     <t xml:space="preserve">U7</t>
   </si>
   <si>
     <t xml:space="preserve">DMHC3025LSD-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1 Q8 Q15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMP3099L-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9 Q10 Q12 Q19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSM3K7002CFU,LF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1702T-3302E/CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIC5219-5.0YMT-TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS76633DR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMV358DMR2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZXCT1023DFGTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYBLE-214009-00</t>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC7WZ08K8X</t>
   </si>
   <si>
     <t xml:space="preserve">U9</t>
@@ -128,378 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.ca/products/en?keywords=Z357PA40-SMT-P-NC-N </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74LVC1T45Z6-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC7WZ08K8X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74VHC4052AFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT25SF041-SSHD-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERJ-6DQF1R3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21 R43 R44 R46 R47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW060310K0FKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3 R6 R52 R53 R61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW060310M0FKEAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23 R68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW06033K30FKEAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17 R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-0743KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R57 R58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW0603470RFKEAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW0603560RFKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16 R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW060356K2FKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0603FT7M50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW0603820RFKEAHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW06032R00FKEAHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-07143KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15 R59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW0603174KFKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW06031R21FKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCG06031M00FKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R35 R40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW06036M04FKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0805FR-074M64L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0201FR-07402KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-07130KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4 R29 R45 R49 R50 R51 R60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW0603100KFKEAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22 R26 R62 R63 R64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW06031K65FKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW0603220KFKEAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0603FT2M37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7 R30 R32 R33 R36 R72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW06033M00FKEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCP15WF104J03RC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL21B475KPFNNNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCM21BR71C475KA73L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22 C23 C32 C41 C43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM21BR61E226ME44L </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9 C28 C45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM21BR61E106MA73L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27 C37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603JRNPO9BN101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1 C2 C5 C6 C7 C8 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C26 C29 C31 C34 C36 C38 C39 C40 C42 C44 C46 C47 C49 C52 C53 C55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCJ188R71E104KA12D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C48 C54 C35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL10B105MO8NNWC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06033C100KAT2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R7BB683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCD188R71H103KA01D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM188R6YA225MA12D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1 L2 L3 L5 L6 L7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPZ1608S331ATA00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREC002SBAN-M71RC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM02B-SFHRS-TF(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2B-PH-SM4-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3B-PH-SM4-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2501LF-06A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.huakevision.com/h-pd-634.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7 P8 P9 P10 P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120220-0311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF37B-10DP-0.4V(53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0ZCF0200AF2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0ZCJ0025AF2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BQ2057TTSTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33 C51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCM31CR71C106KA64L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 Q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSS123WQ-7-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRN4018-221M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCP551SN33T1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLV8544PWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS54061DRBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZXRE330ASA-7</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -537,6 +543,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,9 +592,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -594,8 +609,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -615,15 +630,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="219.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="118.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.29"/>
@@ -652,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,18 +678,18 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,18 +700,15 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -704,54 +716,54 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -759,10 +771,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -770,21 +782,21 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -792,10 +804,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -803,24 +815,21 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -828,10 +837,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -839,10 +848,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -850,68 +859,68 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -919,104 +928,101 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="C33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -1024,10 +1030,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -1035,21 +1041,21 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -1057,115 +1063,119 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B42" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B44" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B46" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1</v>
@@ -1173,10 +1183,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>1</v>
@@ -1184,10 +1194,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>5</v>
@@ -1195,21 +1205,24 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2</v>
@@ -1217,32 +1230,32 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="C52" s="0" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="C53" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1</v>
@@ -1250,10 +1263,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1</v>
@@ -1261,13 +1274,16 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,7 +1305,7 @@
         <v>124</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,7 +1316,7 @@
         <v>126</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1327,7 @@
         <v>128</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,27 +1362,24 @@
       <c r="C63" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="C64" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1</v>
@@ -1374,10 +1387,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1</v>
@@ -1385,10 +1398,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>1</v>
@@ -1396,10 +1409,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>1</v>
@@ -1407,32 +1420,32 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="C69" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="C70" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>1</v>
@@ -1440,10 +1453,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>153</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>1</v>
@@ -1451,10 +1464,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
@@ -1462,10 +1475,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
@@ -1473,25 +1486,39 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <v>1</v>
+      <c r="B76" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://cdn-shop.adafruit.com/product-files/2686/SK6812MINI_REV.01-1-2.pdf"/>
-    <hyperlink ref="D16" r:id="rId2" display="https://www.digikey.ca/products/en?keywords=Z357PA40-SMT-P-NC-N "/>
-    <hyperlink ref="D21" r:id="rId3" display="https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626 "/>
-    <hyperlink ref="D29" r:id="rId4" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073 "/>
-    <hyperlink ref="D33" r:id="rId5" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063 "/>
-    <hyperlink ref="D42" r:id="rId6" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965 "/>
-    <hyperlink ref="D44" r:id="rId7" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160 "/>
-    <hyperlink ref="D63" r:id="rId8" display="http://www.huakevision.com/h-pd-634.html"/>
+    <hyperlink ref="D24" r:id="rId1" display="https://cdn-shop.adafruit.com/product-files/2686/SK6812MINI_REV.01-1-2.pdf"/>
+    <hyperlink ref="D27" r:id="rId2" display="http://www.huakevision.com/h-pd-634.html"/>
+    <hyperlink ref="D38" r:id="rId3" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW0603174KFKEA/541-174KHCT-ND/1180063 "/>
+    <hyperlink ref="D41" r:id="rId4" display="https://www.digikey.ca/product-detail/en/panasonic-electronic-components/ERJ-6DQF1R3V/P19271CT-ND/6004626 "/>
+    <hyperlink ref="D43" r:id="rId5" display="https://www.digikey.ca/product-detail/en/vishay-dale/CRCW06031K65FKEA/541-1.65KHDKR-ND/1184965 "/>
+    <hyperlink ref="D50" r:id="rId6" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT2M37/RMCF0603FT2M37CT-ND/7790160 "/>
+    <hyperlink ref="D56" r:id="rId7" display="https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/RMCF0603FT7M50/RMCF0603FT7M50CT-ND/7790073 "/>
+    <hyperlink ref="D76" r:id="rId8" display="https://www.digikey.ca/products/en?keywords=Z357PA40-SMT-P-NC-N "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
